--- a/results/mp/logistic/corona/confidence/210/desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -76,10 +76,13 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -88,33 +91,33 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -124,52 +127,52 @@
     <t>support</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>join</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>ready</t>
   </si>
   <si>
     <t>well</t>
@@ -178,9 +181,6 @@
     <t>gt</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -202,10 +202,13 @@
     <t>increase</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -632,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8424657534246576</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C3">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D3">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -682,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8378378378378378</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,16 +756,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,16 +806,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9242819843342036</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5608465608465608</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4576271186440678</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K11">
-        <v>0.9014084507042254</v>
+        <v>0.8903394255874674</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4341085271317829</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="C12">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="D12">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4313725490196079</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2666666666666667</v>
+        <v>0.28</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8875</v>
+        <v>0.88125</v>
       </c>
       <c r="L14">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2027777777777778</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>287</v>
+        <v>115</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8867924528301887</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1812080536912752</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,47 +1327,71 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.0873015873015873</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>230</v>
+      </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L17">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>31</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.8604651162790697</v>
+      </c>
+      <c r="L18">
         <v>37</v>
       </c>
-      <c r="K17">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L17">
-        <v>50</v>
-      </c>
-      <c r="M17">
-        <v>50</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
       <c r="M18">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1376,47 +1403,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L19">
+        <v>70</v>
+      </c>
+      <c r="M19">
+        <v>70</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
         <v>0.851063829787234</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>40</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>40</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.8372093023255814</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1431,18 +1458,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="10:17">
+    <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.8253968253968254</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1454,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1480,47 +1507,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L23">
-        <v>32</v>
-      </c>
-      <c r="M23">
-        <v>32</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
+    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1532,178 +1559,178 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>0.7916666666666666</v>
       </c>
       <c r="L25">
+        <v>38</v>
+      </c>
+      <c r="M25">
+        <v>38</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L26">
+        <v>48</v>
+      </c>
+      <c r="M26">
+        <v>48</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.7235294117647059</v>
+      </c>
+      <c r="L27">
+        <v>246</v>
+      </c>
+      <c r="M27">
+        <v>246</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.717687074829932</v>
+      </c>
+      <c r="L28">
+        <v>211</v>
+      </c>
+      <c r="M28">
+        <v>212</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.702928870292887</v>
+      </c>
+      <c r="L29">
+        <v>168</v>
+      </c>
+      <c r="M29">
+        <v>168</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>24</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L31">
         <v>19</v>
       </c>
-      <c r="M25">
+      <c r="M31">
         <v>19</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.78</v>
-      </c>
-      <c r="L26">
-        <v>39</v>
-      </c>
-      <c r="M26">
-        <v>39</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="L28">
-        <v>27</v>
-      </c>
-      <c r="M28">
-        <v>27</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.7470588235294118</v>
-      </c>
-      <c r="L29">
-        <v>254</v>
-      </c>
-      <c r="M29">
-        <v>254</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.7154811715481172</v>
-      </c>
-      <c r="L30">
-        <v>171</v>
-      </c>
-      <c r="M30">
-        <v>171</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L31">
-        <v>20</v>
-      </c>
-      <c r="M31">
-        <v>20</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -1714,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.7021276595744681</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M32">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1740,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1766,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.6983050847457627</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L34">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1792,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1818,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6142857142857143</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1844,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.5757575757575758</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1870,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.5617977528089888</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L38">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1896,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5476190476190477</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1922,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5294117647058824</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1948,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.4358974358974359</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1974,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.3835616438356164</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2000,33 +2027,33 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.296875</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
